--- a/Kevin/CS470.skel/hw4/plot_sine_wave.xlsx
+++ b/Kevin/CS470.skel/hw4/plot_sine_wave.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/Desktop/classes/image processing/Image-Processing-Projects/Anthony/CS470.skel/hw4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kille\Desktop\Git\Image-Processing-Projects\Kevin\CS470.skel\hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C03F1CB5-F2FE-A04A-9451-CD8687646092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4CA460-BD08-40B0-8C96-CC24FD505EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16120" xr2:uid="{175D7BC2-ECBD-4146-9079-93BA748E95A3}"/>
+    <workbookView xWindow="4335" yWindow="1958" windowWidth="18000" windowHeight="9847" xr2:uid="{175D7BC2-ECBD-4146-9079-93BA748E95A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$130</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$130</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$130</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$130</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,6 +109,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sine Input</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -151,8 +166,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -178,14 +193,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$130</c:f>
+              <c:f>Sheet1!$A$2:$A$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -570,18 +597,15 @@
                 <c:pt idx="127">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$130</c:f>
+              <c:f>Sheet1!$B$2:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
                   <c:v>127.5</c:v>
                 </c:pt>
@@ -968,7 +992,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -984,14 +1008,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="29021231"/>
         <c:axId val="76835919"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="29021231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="127"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1034,15 +1059,14 @@
         </c:txPr>
         <c:crossAx val="76835919"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="76835919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1093,7 +1117,7 @@
         </c:txPr>
         <c:crossAx val="29021231"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1701,15 +1725,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>439738</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>141288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2034,19 +2058,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F89DC38-E12C-B144-BE6C-2413CCA92362}">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8125" style="1"/>
+    <col min="2" max="2" width="15.1875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2062,7 +2086,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2070,7 +2094,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2078,7 +2102,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2086,7 +2110,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2094,7 +2118,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2102,7 +2126,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2110,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2118,7 +2142,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2126,7 +2150,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2134,7 +2158,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2142,7 +2166,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2150,7 +2174,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2158,7 +2182,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2166,7 +2190,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2174,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2182,7 +2206,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2190,7 +2214,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2198,7 +2222,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2206,7 +2230,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2214,7 +2238,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2222,7 +2246,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2230,7 +2254,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2238,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2246,7 +2270,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2254,7 +2278,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2262,7 +2286,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2270,7 +2294,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2278,7 +2302,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2286,7 +2310,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2294,7 +2318,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2302,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2310,7 +2334,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2318,7 +2342,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2326,7 +2350,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2334,7 +2358,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2342,7 +2366,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2350,7 +2374,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2358,7 +2382,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2366,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2374,7 +2398,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2382,7 +2406,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2390,7 +2414,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2398,7 +2422,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2406,7 +2430,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2414,7 +2438,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2422,7 +2446,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2430,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2438,7 +2462,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2446,7 +2470,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2454,7 +2478,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2462,7 +2486,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2470,7 +2494,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2478,7 +2502,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2486,7 +2510,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2494,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2502,7 +2526,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2510,7 +2534,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2518,7 +2542,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2526,7 +2550,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2534,7 +2558,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2542,7 +2566,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2550,7 +2574,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2558,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2566,7 +2590,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2574,7 +2598,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2582,7 +2606,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2590,7 +2614,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2598,7 +2622,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2606,7 +2630,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2614,7 +2638,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2622,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2630,7 +2654,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2638,7 +2662,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2646,7 +2670,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2654,7 +2678,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2662,7 +2686,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2670,7 +2694,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2678,7 +2702,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2686,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2694,7 +2718,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2702,7 +2726,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2710,7 +2734,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2718,7 +2742,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2726,7 +2750,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2734,7 +2758,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2742,7 +2766,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2750,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2758,7 +2782,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2766,7 +2790,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2774,7 +2798,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2782,7 +2806,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2790,7 +2814,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2798,7 +2822,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2806,7 +2830,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2814,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2822,7 +2846,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2830,7 +2854,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2838,7 +2862,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2846,7 +2870,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2854,7 +2878,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2862,7 +2886,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2870,7 +2894,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2878,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2886,7 +2910,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2894,7 +2918,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2902,7 +2926,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2910,7 +2934,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2918,7 +2942,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2926,7 +2950,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2934,7 +2958,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2942,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2950,7 +2974,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2958,7 +2982,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2966,7 +2990,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2974,7 +2998,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2982,7 +3006,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2990,7 +3014,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2998,7 +3022,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3006,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3014,7 +3038,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3022,7 +3046,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3030,7 +3054,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3038,7 +3062,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3046,7 +3070,7 @@
         <v>217.6561146</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3054,7 +3078,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3062,7 +3086,7 @@
         <v>37.343885399999998</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3070,17 +3094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" s="1">
         <v>37.343885399999998</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
